--- a/Planner/Aktivitetsliste Planner import.xlsx
+++ b/Planner/Aktivitetsliste Planner import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\repos\powershell-script\Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DDBFB-25A9-4361-A179-22FB1495886B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814CE836-DF31-4EDD-8589-30B95B356FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{F7C1D64B-5C78-4A2D-85AF-B6EE0A0A182D}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>Etablering av aktivitetsplan</t>
   </si>
   <si>
-    <t>Ansvarlig Org</t>
-  </si>
-  <si>
-    <t>Ansvarlig person</t>
-  </si>
-  <si>
     <t>Microsoft</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
   </si>
   <si>
     <t>brukernavn@epost.com</t>
+  </si>
+  <si>
+    <t>AnsvarligOrg</t>
+  </si>
+  <si>
+    <t>Ansvarlig</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB6A1F8-B4CF-48C6-9D74-F6B15B37614B}">
   <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -536,14 +536,14 @@
         <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.45">
@@ -554,14 +554,14 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -1633,12 +1633,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100929ACA0E23B79842A0EC9B4B36B44B5B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8e11938ea9045970c955f1a917c4d4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="149c948e-1669-470d-95ff-cac30f0f55e2" xmlns:ns3="78609033-a0aa-49c5-9c3b-3c1330cc80fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3288473f1bb24c3c6ac6bf2fef3db1c3" ns2:_="" ns3:_="">
     <xsd:import namespace="149c948e-1669-470d-95ff-cac30f0f55e2"/>
@@ -1841,6 +1835,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1851,23 +1851,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4240AEA5-73C7-46E1-A5BC-D5E4EB0F0F8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="149c948e-1669-470d-95ff-cac30f0f55e2"/>
-    <ds:schemaRef ds:uri="78609033-a0aa-49c5-9c3b-3c1330cc80fa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3026C227-644F-408A-A705-B6C918EE679F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1886,6 +1869,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4240AEA5-73C7-46E1-A5BC-D5E4EB0F0F8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="149c948e-1669-470d-95ff-cac30f0f55e2"/>
+    <ds:schemaRef ds:uri="78609033-a0aa-49c5-9c3b-3c1330cc80fa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B851DE7-5F3D-4CFD-BBCF-7BBC10FD211D}">
   <ds:schemaRefs>
